--- a/Horas computadas/Horas - Comite Finanzas - Grupo 2.xlsx
+++ b/Horas computadas/Horas - Comite Finanzas - Grupo 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Caperta personal\Universidad\EGC\Jornadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Caperta personal\Universidad\EGC\Jornadas\Finanzas\Horas computadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
   <si>
     <t>Grupo</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Horas (totales)</t>
-  </si>
-  <si>
     <t>Comité</t>
   </si>
   <si>
@@ -144,13 +141,73 @@
   </si>
   <si>
     <t>José Manuel</t>
+  </si>
+  <si>
+    <t>28:15 (hh:mm)</t>
+  </si>
+  <si>
+    <t>34:40 (hh:mm)</t>
+  </si>
+  <si>
+    <t>17:35 (hh:mm)</t>
+  </si>
+  <si>
+    <t>15:10 (hh:mm)</t>
+  </si>
+  <si>
+    <t>14:14 (hh:mm)</t>
+  </si>
+  <si>
+    <t>20:00 (hh:mm)</t>
+  </si>
+  <si>
+    <t>2:00 (hh:mm)</t>
+  </si>
+  <si>
+    <t>6:20 (hh:mm)</t>
+  </si>
+  <si>
+    <t>7:30 (hh:mm)</t>
+  </si>
+  <si>
+    <t>8:15 (hh:mm)</t>
+  </si>
+  <si>
+    <t>4:10 (hh:mm)</t>
+  </si>
+  <si>
+    <t>6:33 (hh:mm)</t>
+  </si>
+  <si>
+    <t>Horas (total)</t>
+  </si>
+  <si>
+    <t>Horas (trabajo)</t>
+  </si>
+  <si>
+    <t>21:55 (hh:mm)</t>
+  </si>
+  <si>
+    <t>12:30 (hh:mm)</t>
+  </si>
+  <si>
+    <t>7:44 (hh:mm)</t>
+  </si>
+  <si>
+    <t>11:00 (hh:mm)</t>
+  </si>
+  <si>
+    <t>9:20 (hh:mm)</t>
+  </si>
+  <si>
+    <t>27:10 (hh:mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +230,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +283,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -243,14 +302,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1"/>
@@ -273,14 +333,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Énfasis4" xfId="2" builtinId="41"/>
     <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
     <cellStyle name="Énfasis6" xfId="4" builtinId="49"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 3" xfId="1" builtinId="18"/>
   </cellStyles>
@@ -599,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,19 +680,20 @@
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="17" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="18" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -634,278 +702,292 @@
         <v>12</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1.1770833333333333</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I2" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="K2" s="8">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="L2" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M2" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="N2" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="O2" s="8">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0.28125</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="R2" s="10">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="S2" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="T2" s="8">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="U2" s="7"/>
+      <c r="T2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="H3" s="8">
-        <v>6.5972222222222224E-2</v>
-      </c>
-      <c r="I3" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J3" s="8">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="K3" s="8">
-        <v>6.25E-2</v>
-      </c>
-      <c r="L3" s="8">
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="M3" s="8">
-        <v>5.9027777777777783E-2</v>
-      </c>
-      <c r="N3" s="8">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P3" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="S3" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="T3" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="U3" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0.15277777777777776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.73263888888888884</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.34375</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J4" s="8">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="M4" s="8">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0.34375</v>
-      </c>
-      <c r="P4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="L5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -916,142 +998,151 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.59305555555555556</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.27291666666666664</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="I6" s="8">
-        <v>2.1527777777777781E-2</v>
-      </c>
-      <c r="J6" s="8">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="K6" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="M6" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>6.25E-2</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0.27291666666666664</v>
-      </c>
-      <c r="P6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="K7" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="N7" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="8">
-        <v>8.3333333333333329E-2</v>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="H8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1060,8 +1151,9 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1080,8 +1172,9 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1100,8 +1193,9 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1120,8 +1214,9 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1140,8 +1235,9 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1160,8 +1256,9 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1180,8 +1277,9 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1200,8 +1298,9 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1220,8 +1319,9 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1240,8 +1340,9 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1260,8 +1361,9 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1280,8 +1382,9 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1300,8 +1403,9 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1320,8 +1424,9 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1340,8 +1445,9 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1360,8 +1466,9 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1380,8 +1487,9 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1400,8 +1508,9 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1420,8 +1529,9 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1440,8 +1550,9 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1460,8 +1571,9 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1480,8 +1592,9 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1500,8 +1613,9 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1520,8 +1634,9 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1540,8 +1655,9 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1560,8 +1676,9 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1580,8 +1697,9 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1600,8 +1718,9 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1620,8 +1739,9 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1640,8 +1760,9 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1660,8 +1781,9 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1680,8 +1802,9 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1700,8 +1823,9 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1720,8 +1844,9 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1740,8 +1865,9 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1760,8 +1886,9 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1780,8 +1907,9 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1800,8 +1928,9 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1820,8 +1949,9 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1840,8 +1970,9 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="7"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1860,8 +1991,9 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1880,8 +2012,9 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="7"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1900,8 +2033,9 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="7"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1920,8 +2054,9 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="7"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1940,8 +2075,9 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="7"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1960,8 +2096,9 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="7"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1980,8 +2117,9 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2000,8 +2138,9 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="7"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2020,8 +2159,9 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="7"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2040,9 +2180,73 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{020CDF71-2E71-4DFD-AC9B-B4C49A52F9C3}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{D452BA57-C2EE-41E6-991D-C8D3D026E1BC}"/>
+    <hyperlink ref="K2:U2" r:id="rId3" display="Evidencia 2" xr:uid="{40BA5589-FE1B-4C0B-9892-1C630316DFC8}"/>
+    <hyperlink ref="K2" r:id="rId4" xr:uid="{F1686309-A3BF-4CCB-AD63-43BDA3ECCE16}"/>
+    <hyperlink ref="L2" r:id="rId5" xr:uid="{51CF77AD-7FD0-42F3-A829-AD7B618FF0C8}"/>
+    <hyperlink ref="M2" r:id="rId6" xr:uid="{56A3C0F1-DBDB-485C-8772-4F4E7FAEDC5E}"/>
+    <hyperlink ref="N2" r:id="rId7" xr:uid="{5B099692-7097-4243-AF4D-EF0F441246BD}"/>
+    <hyperlink ref="O2" r:id="rId8" xr:uid="{320DDCCB-92B7-4219-963D-504883CF1588}"/>
+    <hyperlink ref="P2" r:id="rId9" xr:uid="{B80EFE0B-75A9-4418-AE8C-15470D6656B1}"/>
+    <hyperlink ref="Q2" r:id="rId10" xr:uid="{0804978A-46E0-4ACC-93B1-17BF321EBF2C}"/>
+    <hyperlink ref="R2" r:id="rId11" xr:uid="{24298453-7710-4402-A6AC-11DBFBA47325}"/>
+    <hyperlink ref="S2" r:id="rId12" xr:uid="{F663E553-F073-47A4-92C5-2140AB65A773}"/>
+    <hyperlink ref="T2" r:id="rId13" xr:uid="{5BEC8AD6-4C4D-4C40-8877-36DEDB6425D3}"/>
+    <hyperlink ref="U2" r:id="rId14" xr:uid="{79ACB8BE-4FB0-4A61-A531-ABE89BB208CD}"/>
+    <hyperlink ref="I8" r:id="rId15" xr:uid="{64935157-970A-47A9-81A2-C2F2F08AE923}"/>
+    <hyperlink ref="J8" r:id="rId16" xr:uid="{C775668D-F7F4-4D23-B5E5-17018D13BECF}"/>
+    <hyperlink ref="I5" r:id="rId17" xr:uid="{793A7E1C-8A5B-4B66-AA88-F587A5B6D6DC}"/>
+    <hyperlink ref="J5" r:id="rId18" xr:uid="{549B9C43-61A9-4DD9-85B6-B367A51B2691}"/>
+    <hyperlink ref="K5" r:id="rId19" xr:uid="{0671EB72-C3A1-4F7A-B34B-9DFE1B21D461}"/>
+    <hyperlink ref="L5" r:id="rId20" xr:uid="{F2F86E9F-3B01-4CB4-BFD7-3C5341CBF264}"/>
+    <hyperlink ref="I3" r:id="rId21" xr:uid="{96E5093F-1D33-46DC-B566-65292A6CFA53}"/>
+    <hyperlink ref="J3" r:id="rId22" xr:uid="{3996D1D4-826C-4F2A-8A8C-5137D5E8C69B}"/>
+    <hyperlink ref="K3" r:id="rId23" xr:uid="{ECEA2B15-C81C-4BF3-B98B-D5D58633603A}"/>
+    <hyperlink ref="L3" r:id="rId24" xr:uid="{EAB5318D-A29A-4851-84B8-494520E7CDB8}"/>
+    <hyperlink ref="M3" r:id="rId25" xr:uid="{593CBBFE-4F52-40F4-860F-454F3BA984C9}"/>
+    <hyperlink ref="N3" r:id="rId26" xr:uid="{579EBCF8-4896-4B73-AAE4-D5684DA6FA30}"/>
+    <hyperlink ref="O3" r:id="rId27" xr:uid="{F7F9C9D3-184B-4312-BFB1-8D86D221343F}"/>
+    <hyperlink ref="P3" r:id="rId28" xr:uid="{C3D652BA-C7A8-42FD-8748-AE6F3C21E9CB}"/>
+    <hyperlink ref="Q3" r:id="rId29" xr:uid="{5591191E-2F19-4343-B022-97CDB5E54CF0}"/>
+    <hyperlink ref="R3" r:id="rId30" xr:uid="{FC347F84-9C3A-4DC8-8269-BB0FAFBB1D09}"/>
+    <hyperlink ref="S3" r:id="rId31" xr:uid="{1C457ABD-6277-4734-8DE3-DEF9453ADD5D}"/>
+    <hyperlink ref="T3" r:id="rId32" xr:uid="{7B3F6927-B8BB-4EF1-90F7-E5557C196042}"/>
+    <hyperlink ref="U3" r:id="rId33" xr:uid="{ABD78235-0964-433A-9FA9-37A0CCF033C5}"/>
+    <hyperlink ref="V3" r:id="rId34" xr:uid="{51DA2B26-7B1F-435C-A8B4-8E29E6A33AC9}"/>
+    <hyperlink ref="W3" r:id="rId35" xr:uid="{F0B3BC9F-0A8B-4970-AB32-5C8E0ED04643}"/>
+    <hyperlink ref="I7" r:id="rId36" xr:uid="{545B812B-9267-4FF4-846F-35E9E57BB002}"/>
+    <hyperlink ref="J7" r:id="rId37" xr:uid="{3E42F005-6B30-421E-BF48-7D1C82DCA4D1}"/>
+    <hyperlink ref="K7" r:id="rId38" xr:uid="{B21B4DCB-2E30-4E68-843E-29ECBB9251AB}"/>
+    <hyperlink ref="L7" r:id="rId39" xr:uid="{6780E00F-18BD-4A49-ABE3-450CE6745937}"/>
+    <hyperlink ref="M7" r:id="rId40" xr:uid="{2B7E85BD-DB4F-42A4-9F56-83F316E2539B}"/>
+    <hyperlink ref="N7" r:id="rId41" xr:uid="{15A318E5-BAEA-48EF-8C97-116AD6258FAA}"/>
+    <hyperlink ref="O7" r:id="rId42" xr:uid="{7474F5A2-4AEB-4047-AA9D-09127A2B394C}"/>
+    <hyperlink ref="P7" r:id="rId43" xr:uid="{572D6E5A-87D9-4F7C-896F-76BB42176043}"/>
+    <hyperlink ref="Q7" r:id="rId44" xr:uid="{B70C3843-58FE-4217-956E-52243171CE89}"/>
+    <hyperlink ref="R7" r:id="rId45" xr:uid="{94C66CC7-75B8-48E0-9C3B-563EFA4A1C56}"/>
+    <hyperlink ref="I6" r:id="rId46" xr:uid="{696BD4DF-B71D-4709-A794-09F3951AC623}"/>
+    <hyperlink ref="J6" r:id="rId47" xr:uid="{D6FDF869-3BF7-4E14-9C93-7E4D22FDCA84}"/>
+    <hyperlink ref="K6" r:id="rId48" xr:uid="{EE1A07A8-0C26-48DA-9800-381B359A0D06}"/>
+    <hyperlink ref="L6" r:id="rId49" xr:uid="{77CF75F9-C92E-4143-B261-958F7B41F26E}"/>
+    <hyperlink ref="M6" r:id="rId50" xr:uid="{395A4C96-9A42-41E0-980B-FEA390E7FDDB}"/>
+    <hyperlink ref="N6" r:id="rId51" xr:uid="{24D3CB78-BE00-43B7-BF8D-8602A9116F5B}"/>
+    <hyperlink ref="O6" r:id="rId52" xr:uid="{D6334DCF-E7BC-4E7A-A32C-75005A00088D}"/>
+    <hyperlink ref="P6" r:id="rId53" xr:uid="{7DD824D7-9D65-4C26-BB63-27945D24EAA0}"/>
+    <hyperlink ref="I4" r:id="rId54" xr:uid="{ACB26377-289A-4B11-9F5C-F32EF1B06345}"/>
+    <hyperlink ref="J4" r:id="rId55" xr:uid="{114294C9-7A04-4D93-AE22-EF176F8C981B}"/>
+    <hyperlink ref="K4" r:id="rId56" xr:uid="{5E04B18B-25EB-4D2B-9220-C2CA6A6688FE}"/>
+    <hyperlink ref="L4" r:id="rId57" xr:uid="{8113BEA9-B517-41D5-80DB-1A58B58D822A}"/>
+    <hyperlink ref="M4" r:id="rId58" xr:uid="{BA9217FE-BE24-43E2-BFE6-8A76EF891D85}"/>
+    <hyperlink ref="N4" r:id="rId59" xr:uid="{3388FF93-E364-4967-8286-006556221E97}"/>
+    <hyperlink ref="O4" r:id="rId60" xr:uid="{7419B04A-605E-48ED-8CCB-FB15AD712AB6}"/>
+    <hyperlink ref="P4" r:id="rId61" xr:uid="{E3EAE992-E8BF-431F-B69B-04DEB07438BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>